--- a/data/현행추정부채_요구자본_자동차/20210804/자동차_비비례출재_개별추산액_201912.xlsx
+++ b/data/현행추정부채_요구자본_자동차/20210804/자동차_비비례출재_개별추산액_201912.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>PDC_CD</t>
   </si>
@@ -20,6 +20,9 @@
     <t>T02_RN_RINSC_CD</t>
   </si>
   <si>
+    <t>CMSN_DVCD</t>
+  </si>
+  <si>
     <t>RN_OST_AMT</t>
   </si>
   <si>
@@ -29,58 +32,88 @@
     <t>185055</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>123015</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>122053</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>122047</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>185083</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>124012</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>185108</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>543008</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>185097</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
     <t>542021</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -432,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
@@ -444,114 +477,147 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>265729777</v>
       </c>
     </row>
     <row r="3" ht="15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>70015288</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>313681809</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>46198258</v>
       </c>
     </row>
     <row r="6" ht="15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>242775613</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
         <v>1614893586</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
         <v>68542157</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
         <v>64135354</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>125527421</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>192794399</v>
       </c>
     </row>
